--- a/medicine/Psychotrope/Grolleau_blanc/Grolleau_blanc.xlsx
+++ b/medicine/Psychotrope/Grolleau_blanc/Grolleau_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  grolleau blanc est un cépage de France de raisins blancs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le grolleau blanc est un cépage de vigne très rare en France. Le cépage est une variété du grolleau. Il a été signalé dans l'aire d'appellation des Coteaux-du-Layon. La variété serait apparue sur un cep de grolleau gris.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau duveteux blanc à liseré carminé.
 Jeune feuilles aranéeuses, très bronzées
@@ -575,7 +591,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque: 20 jours après le chasselas.
 </t>
@@ -606,7 +624,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont assez grosses et les baies sont de taille moyenne. La grappe est tronconique, ailée. Le cépage est vigoureux et il doit être taillé court. Il est sensible à l'excoriose, à la pourriture pédonculaire et le court-noué.
 </t>
@@ -637,7 +657,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">pas connu
 </t>
